--- a/python_env/select group parts/9280-parts.xlsx
+++ b/python_env/select group parts/9280-parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Open-Bassoon\specification\select group parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Open-Bassoon\python_env\select group parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C938D98-D5C7-4FEF-9A25-876C601C2F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BF7579-DFEE-4794-B01A-A965BD2688C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wing" sheetId="1" r:id="rId1"/>
@@ -357,17 +357,17 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,17 +548,17 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -691,17 +691,17 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,25 +834,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="B2">
-        <v>0.80200000000000005</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -865,25 +865,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="B2">
-        <v>0.82599999999999996</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -895,18 +895,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D69EAEF-EAAE-4B52-B1A4-7531D836CC92}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -967,7 +967,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.0149999999999999</v>
+        <v>1.105</v>
       </c>
       <c r="B9">
         <v>6.375</v>
@@ -1134,18 +1134,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D729C1-14DB-4477-9EB6-476718779950}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
